--- a/files/rice_cropping_calendar.xlsx
+++ b/files/rice_cropping_calendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amia\projects\acap-calabarzon-v2\server\src\scripts\data\dataset_v2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CA863054-43C6-42D0-9E8D-F554BA222D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A129E5D7-7AF5-4BF3-9DAE-DE5077018B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7923F38-1663-594D-8E78-F7F4F677AEE7}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E7923F38-1663-594D-8E78-F7F4F677AEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="rice_cropping_calendar" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="3325" uniqueCount="200">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="3272" uniqueCount="202">
   <si>
     <t>prov</t>
   </si>
@@ -629,13 +629,19 @@
   </si>
   <si>
     <t>Amadeo</t>
+  </si>
+  <si>
+    <t>veg</t>
+  </si>
+  <si>
+    <t>flo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -788,8 +794,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,8 +1039,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF38761D"/>
+        <bgColor rgb="FF38761D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF274E13"/>
+        <bgColor rgb="FF274E13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF980000"/>
+        <bgColor rgb="FF980000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <start/>
       <end/>
@@ -1139,6 +1191,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color rgb="FF000000"/>
+      </start>
+      <end style="thin">
+        <color rgb="FF000000"/>
+      </end>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1184,7 +1251,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1214,13 +1281,21 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1599,8 +1674,8 @@
   <dimension ref="A1:AA346"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4831,30 +4906,15 @@
       <c r="C72" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="15"/>
-      <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="15"/>
-      <c r="AA72" s="15"/>
+      <c r="E72" s="7"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -4866,30 +4926,15 @@
       <c r="C73" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="15"/>
-      <c r="X73" s="15"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="15"/>
-      <c r="AA73" s="15"/>
+      <c r="E73" s="7"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -14400,51 +14445,69 @@
       <c r="C256" t="s">
         <v>27</v>
       </c>
-      <c r="D256" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F256" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G256" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H256" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J256" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K256" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L256" s="5"/>
-      <c r="M256" s="5"/>
-      <c r="N256" s="5"/>
-      <c r="O256" s="5"/>
-      <c r="P256" s="5"/>
-      <c r="Q256" s="5"/>
-      <c r="R256" s="5"/>
-      <c r="S256" s="5"/>
-      <c r="T256" s="5"/>
-      <c r="U256" s="5"/>
-      <c r="V256" s="5"/>
-      <c r="W256" s="5"/>
-      <c r="X256" s="5"/>
-      <c r="Y256" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z256" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA256" s="3" t="s">
-        <v>37</v>
+      <c r="D256" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E256" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F256" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G256" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H256" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I256" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J256" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K256" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L256" s="20"/>
+      <c r="M256" s="20"/>
+      <c r="N256" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O256" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P256" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q256" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R256" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="S256" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="T256" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="U256" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V256" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="W256" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X256" s="20"/>
+      <c r="Y256" s="20"/>
+      <c r="Z256" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA256" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="257" spans="1:27" x14ac:dyDescent="0.25">
@@ -14457,56 +14520,10 @@
       <c r="C257" t="s">
         <v>27</v>
       </c>
-      <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="5"/>
-      <c r="H257" s="5"/>
-      <c r="I257" s="5"/>
-      <c r="J257" s="5"/>
-      <c r="K257" s="5"/>
-      <c r="L257" s="5"/>
-      <c r="M257" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N257" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O257" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P257" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q257" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R257" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S257" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T257" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U257" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V257" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W257" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X257" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y257" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z257" s="5"/>
-      <c r="AA257" s="5"/>
+      <c r="L257" s="22"/>
+      <c r="M257" s="22"/>
+      <c r="X257" s="22"/>
+      <c r="Y257" s="22"/>
     </row>
     <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
@@ -14518,51 +14535,69 @@
       <c r="C258" t="s">
         <v>27</v>
       </c>
-      <c r="D258" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F258" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G258" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H258" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I258" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K258" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L258" s="5"/>
-      <c r="M258" s="5"/>
-      <c r="N258" s="5"/>
-      <c r="O258" s="5"/>
-      <c r="P258" s="5"/>
-      <c r="Q258" s="5"/>
-      <c r="R258" s="5"/>
-      <c r="S258" s="5"/>
-      <c r="T258" s="5"/>
-      <c r="U258" s="5"/>
-      <c r="V258" s="5"/>
-      <c r="W258" s="5"/>
-      <c r="X258" s="5"/>
-      <c r="Y258" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z258" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA258" s="3" t="s">
-        <v>37</v>
+      <c r="D258" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E258" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F258" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G258" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H258" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I258" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J258" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K258" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L258" s="20"/>
+      <c r="M258" s="20"/>
+      <c r="N258" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O258" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P258" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q258" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R258" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="S258" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="T258" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="U258" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V258" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="W258" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X258" s="20"/>
+      <c r="Y258" s="20"/>
+      <c r="Z258" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA258" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.25">
@@ -14575,56 +14610,20 @@
       <c r="C259" t="s">
         <v>27</v>
       </c>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5"/>
-      <c r="H259" s="5"/>
-      <c r="I259" s="5"/>
-      <c r="J259" s="5"/>
-      <c r="K259" s="5"/>
-      <c r="L259" s="5"/>
-      <c r="M259" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N259" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O259" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P259" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q259" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R259" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S259" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T259" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U259" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V259" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W259" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X259" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y259" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z259" s="5"/>
-      <c r="AA259" s="5"/>
+      <c r="L259" s="22"/>
+      <c r="M259" s="22"/>
+      <c r="N259" s="22"/>
+      <c r="O259" s="22"/>
+      <c r="P259" s="22"/>
+      <c r="Q259" s="22"/>
+      <c r="R259" s="22"/>
+      <c r="S259" s="22"/>
+      <c r="T259" s="22"/>
+      <c r="U259" s="22"/>
+      <c r="V259" s="22"/>
+      <c r="W259" s="22"/>
+      <c r="X259" s="22"/>
+      <c r="Y259" s="22"/>
     </row>
     <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
@@ -14636,45 +14635,69 @@
       <c r="C260" t="s">
         <v>27</v>
       </c>
-      <c r="D260" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E260" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F260" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G260" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H260" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I260" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J260" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K260" s="5"/>
-      <c r="L260" s="7"/>
-      <c r="O260" s="5"/>
-      <c r="P260" s="5"/>
-      <c r="Q260" s="5"/>
-      <c r="R260" s="5"/>
-      <c r="W260" s="5"/>
-      <c r="X260" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y260" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z260" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA260" s="3" t="s">
-        <v>37</v>
+      <c r="D260" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E260" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F260" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G260" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H260" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I260" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J260" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K260" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L260" s="23"/>
+      <c r="M260" s="23"/>
+      <c r="N260" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O260" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P260" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q260" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R260" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="S260" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="T260" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="U260" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V260" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="W260" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="X260" s="20"/>
+      <c r="Y260" s="20"/>
+      <c r="Z260" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA260" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="261" spans="1:27" x14ac:dyDescent="0.25">
@@ -14687,56 +14710,10 @@
       <c r="C261" t="s">
         <v>27</v>
       </c>
-      <c r="D261" s="5"/>
-      <c r="E261" s="5"/>
-      <c r="F261" s="5"/>
-      <c r="G261" s="5"/>
-      <c r="H261" s="5"/>
-      <c r="I261" s="5"/>
-      <c r="J261" s="5"/>
-      <c r="K261" s="5"/>
-      <c r="L261" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M261" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N261" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O261" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P261" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q261" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R261" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S261" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T261" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U261" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V261" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W261" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X261" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y261" s="5"/>
-      <c r="Z261" s="5"/>
-      <c r="AA261" s="5"/>
+      <c r="V261" s="22"/>
+      <c r="W261" s="22"/>
+      <c r="X261" s="22"/>
+      <c r="Y261" s="22"/>
     </row>
     <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
@@ -14748,30 +14725,70 @@
       <c r="C262" t="s">
         <v>27</v>
       </c>
-      <c r="D262" s="5"/>
-      <c r="E262" s="5"/>
-      <c r="F262" s="5"/>
-      <c r="G262" s="5"/>
-      <c r="H262" s="5"/>
-      <c r="I262" s="5"/>
-      <c r="J262" s="5"/>
-      <c r="K262" s="5"/>
-      <c r="L262" s="5"/>
-      <c r="M262" s="5"/>
-      <c r="N262" s="5"/>
-      <c r="O262" s="5"/>
-      <c r="P262" s="5"/>
-      <c r="Q262" s="5"/>
-      <c r="R262" s="5"/>
-      <c r="S262" s="5"/>
-      <c r="T262" s="5"/>
-      <c r="U262" s="5"/>
-      <c r="V262" s="5"/>
-      <c r="W262" s="5"/>
-      <c r="X262" s="5"/>
-      <c r="Y262" s="5"/>
-      <c r="Z262" s="5"/>
-      <c r="AA262" s="5"/>
+      <c r="D262" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E262" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F262" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G262" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H262" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I262" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J262" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K262" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L262" s="23"/>
+      <c r="M262" s="23"/>
+      <c r="N262" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O262" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P262" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q262" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R262" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="S262" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="T262" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="U262" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V262" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="W262" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="X262" s="20"/>
+      <c r="Y262" s="20"/>
+      <c r="Z262" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA262" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
@@ -14783,30 +14800,20 @@
       <c r="C263" t="s">
         <v>27</v>
       </c>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="5"/>
-      <c r="H263" s="5"/>
-      <c r="I263" s="5"/>
-      <c r="J263" s="5"/>
-      <c r="K263" s="5"/>
-      <c r="L263" s="5"/>
-      <c r="M263" s="5"/>
-      <c r="N263" s="5"/>
-      <c r="O263" s="5"/>
-      <c r="P263" s="5"/>
-      <c r="Q263" s="5"/>
-      <c r="R263" s="5"/>
-      <c r="S263" s="5"/>
-      <c r="T263" s="5"/>
-      <c r="U263" s="5"/>
-      <c r="V263" s="5"/>
-      <c r="W263" s="5"/>
-      <c r="X263" s="5"/>
-      <c r="Y263" s="5"/>
-      <c r="Z263" s="5"/>
-      <c r="AA263" s="5"/>
+      <c r="D263" s="22"/>
+      <c r="E263" s="22"/>
+      <c r="F263" s="22"/>
+      <c r="G263" s="22"/>
+      <c r="H263" s="22"/>
+      <c r="I263" s="22"/>
+      <c r="J263" s="22"/>
+      <c r="K263" s="22"/>
+      <c r="V263" s="22"/>
+      <c r="W263" s="22"/>
+      <c r="X263" s="22"/>
+      <c r="Y263" s="22"/>
+      <c r="Z263" s="22"/>
+      <c r="AA263" s="22"/>
     </row>
     <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
@@ -14818,51 +14825,49 @@
       <c r="C264" t="s">
         <v>27</v>
       </c>
-      <c r="D264" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E264" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F264" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G264" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H264" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I264" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J264" s="5"/>
-      <c r="K264" s="5"/>
-      <c r="L264" s="5"/>
-      <c r="M264" s="5"/>
-      <c r="N264" s="5"/>
-      <c r="O264" s="5"/>
-      <c r="P264" s="5"/>
-      <c r="Q264" s="5"/>
-      <c r="R264" s="5"/>
-      <c r="S264" s="5"/>
-      <c r="T264" s="5"/>
-      <c r="U264" s="5"/>
-      <c r="V264" s="5"/>
-      <c r="W264" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X264" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y264" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z264" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA264" s="3" t="s">
-        <v>37</v>
+      <c r="D264" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E264" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F264" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G264" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H264" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I264" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J264" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K264" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L264" s="20"/>
+      <c r="M264" s="20"/>
+      <c r="N264" s="20"/>
+      <c r="O264" s="20"/>
+      <c r="P264" s="20"/>
+      <c r="Q264" s="20"/>
+      <c r="R264" s="20"/>
+      <c r="S264" s="20"/>
+      <c r="T264" s="20"/>
+      <c r="U264" s="20"/>
+      <c r="V264" s="20"/>
+      <c r="W264" s="20"/>
+      <c r="X264" s="20"/>
+      <c r="Y264" s="20"/>
+      <c r="Z264" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA264" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="265" spans="1:27" x14ac:dyDescent="0.25">
@@ -14875,56 +14880,10 @@
       <c r="C265" t="s">
         <v>27</v>
       </c>
-      <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5"/>
-      <c r="G265" s="5"/>
-      <c r="H265" s="5"/>
-      <c r="I265" s="5"/>
-      <c r="J265" s="5"/>
-      <c r="K265" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L265" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M265" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N265" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O265" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P265" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q265" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R265" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="S265" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T265" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U265" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V265" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W265" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X265" s="5"/>
-      <c r="Y265" s="5"/>
-      <c r="Z265" s="5"/>
-      <c r="AA265" s="5"/>
+      <c r="V265" s="22"/>
+      <c r="W265" s="22"/>
+      <c r="X265" s="22"/>
+      <c r="Y265" s="22"/>
     </row>
     <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
@@ -14936,45 +14895,69 @@
       <c r="C266" t="s">
         <v>27</v>
       </c>
-      <c r="D266" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G266" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H266" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I266" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J266" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K266" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L266" s="5"/>
-      <c r="M266" s="7"/>
-      <c r="P266" s="5"/>
-      <c r="Q266" s="5"/>
-      <c r="R266" s="5"/>
-      <c r="S266" s="5"/>
-      <c r="X266" s="5"/>
-      <c r="Y266" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z266" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA266" s="3" t="s">
-        <v>37</v>
+      <c r="D266" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E266" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F266" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G266" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H266" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I266" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J266" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K266" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L266" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="M266" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="N266" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="O266" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P266" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q266" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="R266" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="S266" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="T266" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="U266" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="V266" s="20"/>
+      <c r="W266" s="20"/>
+      <c r="X266" s="20"/>
+      <c r="Y266" s="20"/>
+      <c r="Z266" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA266" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="267" spans="1:27" x14ac:dyDescent="0.25">
@@ -14987,56 +14970,20 @@
       <c r="C267" t="s">
         <v>27</v>
       </c>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
-      <c r="F267" s="5"/>
-      <c r="G267" s="5"/>
-      <c r="H267" s="5"/>
-      <c r="I267" s="5"/>
-      <c r="J267" s="5"/>
-      <c r="K267" s="5"/>
-      <c r="L267" s="5"/>
-      <c r="M267" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N267" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O267" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P267" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q267" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R267" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S267" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T267" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U267" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V267" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W267" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X267" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y267" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z267" s="5"/>
-      <c r="AA267" s="5"/>
+      <c r="L267" s="22"/>
+      <c r="M267" s="22"/>
+      <c r="N267" s="22"/>
+      <c r="O267" s="22"/>
+      <c r="P267" s="22"/>
+      <c r="Q267" s="22"/>
+      <c r="R267" s="22"/>
+      <c r="S267" s="22"/>
+      <c r="T267" s="22"/>
+      <c r="U267" s="22"/>
+      <c r="V267" s="22"/>
+      <c r="W267" s="22"/>
+      <c r="X267" s="22"/>
+      <c r="Y267" s="22"/>
     </row>
     <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
@@ -15048,56 +14995,70 @@
       <c r="C268" t="s">
         <v>27</v>
       </c>
-      <c r="D268" s="5"/>
-      <c r="E268" s="5"/>
-      <c r="F268" s="5"/>
-      <c r="G268" s="5"/>
-      <c r="H268" s="5"/>
-      <c r="I268" s="5"/>
-      <c r="J268" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K268" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L268" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M268" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N268" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O268" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P268" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q268" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R268" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S268" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T268" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U268" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V268" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W268" s="5"/>
-      <c r="X268" s="5"/>
-      <c r="Y268" s="5"/>
-      <c r="Z268" s="5"/>
-      <c r="AA268" s="5"/>
+      <c r="D268" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E268" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F268" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G268" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H268" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I268" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J268" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K268" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L268" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M268" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N268" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O268" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P268" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q268" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="R268" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="S268" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T268" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="U268" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="V268" s="23"/>
+      <c r="W268" s="23"/>
+      <c r="X268" s="23"/>
+      <c r="Y268" s="23"/>
+      <c r="Z268" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA268" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
@@ -15109,56 +15070,6 @@
       <c r="C269" t="s">
         <v>27</v>
       </c>
-      <c r="D269" s="5"/>
-      <c r="E269" s="5"/>
-      <c r="F269" s="5"/>
-      <c r="G269" s="5"/>
-      <c r="H269" s="5"/>
-      <c r="I269" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J269" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K269" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L269" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M269" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N269" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O269" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P269" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q269" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R269" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="S269" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T269" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U269" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V269" s="5"/>
-      <c r="W269" s="5"/>
-      <c r="X269" s="5"/>
-      <c r="Y269" s="5"/>
-      <c r="Z269" s="5"/>
-      <c r="AA269" s="5"/>
     </row>
     <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
@@ -15170,51 +15081,69 @@
       <c r="C270" t="s">
         <v>27</v>
       </c>
-      <c r="D270" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F270" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G270" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H270" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I270" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J270" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K270" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L270" s="5"/>
-      <c r="M270" s="5"/>
-      <c r="N270" s="5"/>
-      <c r="O270" s="5"/>
-      <c r="P270" s="5"/>
-      <c r="Q270" s="5"/>
-      <c r="R270" s="5"/>
-      <c r="S270" s="5"/>
-      <c r="T270" s="5"/>
-      <c r="U270" s="5"/>
-      <c r="V270" s="5"/>
-      <c r="W270" s="5"/>
-      <c r="X270" s="5"/>
-      <c r="Y270" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z270" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA270" s="3" t="s">
-        <v>37</v>
+      <c r="D270" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E270" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F270" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G270" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H270" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I270" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J270" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K270" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L270" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M270" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N270" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O270" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P270" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q270" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="R270" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="S270" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T270" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="U270" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="V270" s="23"/>
+      <c r="W270" s="23"/>
+      <c r="X270" s="23"/>
+      <c r="Y270" s="23"/>
+      <c r="Z270" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA270" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="271" spans="1:27" x14ac:dyDescent="0.25">
@@ -15227,56 +15156,6 @@
       <c r="C271" t="s">
         <v>27</v>
       </c>
-      <c r="D271" s="5"/>
-      <c r="E271" s="5"/>
-      <c r="F271" s="5"/>
-      <c r="G271" s="5"/>
-      <c r="H271" s="5"/>
-      <c r="I271" s="5"/>
-      <c r="J271" s="5"/>
-      <c r="K271" s="5"/>
-      <c r="L271" s="5"/>
-      <c r="M271" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N271" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O271" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P271" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q271" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R271" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S271" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T271" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U271" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V271" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W271" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X271" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y271" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z271" s="5"/>
-      <c r="AA271" s="5"/>
     </row>
     <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
@@ -15406,55 +15285,49 @@
       <c r="C274" t="s">
         <v>27</v>
       </c>
-      <c r="D274" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F274" s="5"/>
-      <c r="G274" s="5"/>
-      <c r="H274" s="5"/>
-      <c r="I274" s="5"/>
-      <c r="J274" s="5"/>
-      <c r="K274" s="5"/>
-      <c r="L274" s="5"/>
-      <c r="M274" s="5"/>
-      <c r="N274" s="5"/>
-      <c r="O274" s="5"/>
-      <c r="P274" s="5"/>
-      <c r="Q274" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R274" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S274" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T274" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U274" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V274" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W274" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X274" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y274" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z274" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA274" s="9" t="s">
-        <v>33</v>
+      <c r="D274" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E274" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F274" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G274" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H274" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I274" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J274" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K274" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L274" s="23"/>
+      <c r="M274" s="23"/>
+      <c r="N274" s="23"/>
+      <c r="O274" s="23"/>
+      <c r="P274" s="23"/>
+      <c r="Q274" s="23"/>
+      <c r="R274" s="23"/>
+      <c r="S274" s="23"/>
+      <c r="T274" s="23"/>
+      <c r="U274" s="23"/>
+      <c r="V274" s="23"/>
+      <c r="W274" s="23"/>
+      <c r="X274" s="23"/>
+      <c r="Y274" s="23"/>
+      <c r="Z274" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA274" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.25">
@@ -15467,52 +15340,6 @@
       <c r="C275" t="s">
         <v>27</v>
       </c>
-      <c r="D275" s="5"/>
-      <c r="E275" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F275" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G275" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H275" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I275" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J275" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K275" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L275" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M275" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N275" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O275" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P275" s="5"/>
-      <c r="Q275" s="5"/>
-      <c r="R275" s="5"/>
-      <c r="S275" s="5"/>
-      <c r="T275" s="5"/>
-      <c r="U275" s="5"/>
-      <c r="V275" s="5"/>
-      <c r="W275" s="5"/>
-      <c r="X275" s="5"/>
-      <c r="Y275" s="5"/>
-      <c r="Z275" s="5"/>
-      <c r="AA275" s="5"/>
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
@@ -15524,51 +15351,69 @@
       <c r="C276" t="s">
         <v>27</v>
       </c>
-      <c r="D276" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E276" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F276" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G276" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H276" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I276" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J276" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K276" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L276" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M276" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N276" s="5"/>
-      <c r="O276" s="5"/>
-      <c r="P276" s="5"/>
-      <c r="Q276" s="5"/>
-      <c r="R276" s="5"/>
-      <c r="S276" s="5"/>
-      <c r="T276" s="5"/>
-      <c r="U276" s="5"/>
-      <c r="V276" s="5"/>
-      <c r="W276" s="5"/>
-      <c r="X276" s="5"/>
-      <c r="Y276" s="5"/>
-      <c r="Z276" s="5"/>
-      <c r="AA276" s="6" t="s">
-        <v>35</v>
+      <c r="D276" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E276" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F276" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G276" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H276" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I276" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J276" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K276" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L276" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M276" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N276" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O276" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P276" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q276" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="R276" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="S276" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T276" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="U276" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="V276" s="23"/>
+      <c r="W276" s="23"/>
+      <c r="X276" s="23"/>
+      <c r="Y276" s="23"/>
+      <c r="Z276" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA276" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.25">
@@ -15581,56 +15426,6 @@
       <c r="C277" t="s">
         <v>27</v>
       </c>
-      <c r="D277" s="5"/>
-      <c r="E277" s="5"/>
-      <c r="F277" s="5"/>
-      <c r="G277" s="5"/>
-      <c r="H277" s="5"/>
-      <c r="I277" s="5"/>
-      <c r="J277" s="5"/>
-      <c r="K277" s="5"/>
-      <c r="L277" s="5"/>
-      <c r="M277" s="5"/>
-      <c r="N277" s="5"/>
-      <c r="O277" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P277" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q277" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="R277" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S277" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T277" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U277" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V277" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="W277" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X277" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y277" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z277" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA277" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
@@ -15642,51 +15437,49 @@
       <c r="C278" t="s">
         <v>27</v>
       </c>
-      <c r="D278" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E278" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F278" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G278" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H278" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I278" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J278" s="5"/>
-      <c r="K278" s="5"/>
-      <c r="L278" s="5"/>
-      <c r="M278" s="5"/>
-      <c r="N278" s="5"/>
-      <c r="O278" s="5"/>
-      <c r="P278" s="5"/>
-      <c r="Q278" s="5"/>
-      <c r="R278" s="5"/>
-      <c r="S278" s="5"/>
-      <c r="T278" s="5"/>
-      <c r="U278" s="5"/>
-      <c r="V278" s="5"/>
-      <c r="W278" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X278" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y278" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z278" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA278" s="3" t="s">
-        <v>37</v>
+      <c r="D278" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E278" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F278" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G278" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H278" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I278" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J278" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K278" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L278" s="23"/>
+      <c r="M278" s="23"/>
+      <c r="N278" s="23"/>
+      <c r="O278" s="23"/>
+      <c r="P278" s="23"/>
+      <c r="Q278" s="23"/>
+      <c r="R278" s="23"/>
+      <c r="S278" s="23"/>
+      <c r="T278" s="23"/>
+      <c r="U278" s="23"/>
+      <c r="V278" s="23"/>
+      <c r="W278" s="23"/>
+      <c r="X278" s="23"/>
+      <c r="Y278" s="23"/>
+      <c r="Z278" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA278" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.25">
@@ -15699,56 +15492,6 @@
       <c r="C279" t="s">
         <v>27</v>
       </c>
-      <c r="D279" s="5"/>
-      <c r="E279" s="5"/>
-      <c r="F279" s="5"/>
-      <c r="G279" s="5"/>
-      <c r="H279" s="5"/>
-      <c r="I279" s="5"/>
-      <c r="J279" s="5"/>
-      <c r="K279" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L279" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M279" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N279" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O279" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P279" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q279" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R279" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="S279" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T279" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U279" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V279" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W279" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X279" s="5"/>
-      <c r="Y279" s="5"/>
-      <c r="Z279" s="5"/>
-      <c r="AA279" s="5"/>
     </row>
     <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
@@ -15760,45 +15503,49 @@
       <c r="C280" t="s">
         <v>27</v>
       </c>
-      <c r="D280" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F280" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G280" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H280" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I280" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J280" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K280" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L280" s="5"/>
-      <c r="M280" s="7"/>
-      <c r="P280" s="5"/>
-      <c r="Q280" s="5"/>
-      <c r="R280" s="5"/>
-      <c r="S280" s="5"/>
-      <c r="X280" s="5"/>
-      <c r="Y280" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z280" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA280" s="3" t="s">
-        <v>37</v>
+      <c r="D280" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E280" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F280" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G280" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H280" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I280" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J280" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K280" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L280" s="23"/>
+      <c r="M280" s="23"/>
+      <c r="N280" s="23"/>
+      <c r="O280" s="23"/>
+      <c r="P280" s="23"/>
+      <c r="Q280" s="23"/>
+      <c r="R280" s="23"/>
+      <c r="S280" s="23"/>
+      <c r="T280" s="23"/>
+      <c r="U280" s="23"/>
+      <c r="V280" s="23"/>
+      <c r="W280" s="23"/>
+      <c r="X280" s="23"/>
+      <c r="Y280" s="23"/>
+      <c r="Z280" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA280" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.25">

--- a/files/rice_cropping_calendar.xlsx
+++ b/files/rice_cropping_calendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amia\projects\acap-calabarzon-v2\server\src\scripts\data\dataset_v2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A129E5D7-7AF5-4BF3-9DAE-DE5077018B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CA863054-43C6-42D0-9E8D-F554BA222D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E7923F38-1663-594D-8E78-F7F4F677AEE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7923F38-1663-594D-8E78-F7F4F677AEE7}"/>
   </bookViews>
   <sheets>
     <sheet name="rice_cropping_calendar" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="3272" uniqueCount="202">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="3325" uniqueCount="200">
   <si>
     <t>prov</t>
   </si>
@@ -629,19 +629,13 @@
   </si>
   <si>
     <t>Amadeo</t>
-  </si>
-  <si>
-    <t>veg</t>
-  </si>
-  <si>
-    <t>flo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -794,18 +788,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="48">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1039,44 +1023,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
-        <bgColor rgb="FF6AA84F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF38761D"/>
-        <bgColor rgb="FF38761D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF274E13"/>
-        <bgColor rgb="FF274E13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF980000"/>
-        <bgColor rgb="FF980000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <start/>
       <end/>
@@ -1191,21 +1139,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <start style="thin">
-        <color rgb="FF000000"/>
-      </start>
-      <end style="thin">
-        <color rgb="FF000000"/>
-      </end>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1251,7 +1184,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1281,21 +1214,13 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1674,8 +1599,8 @@
   <dimension ref="A1:AA346"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E269" sqref="E269"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4906,15 +4831,30 @@
       <c r="C72" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
+      <c r="Z72" s="15"/>
+      <c r="AA72" s="15"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -4926,15 +4866,30 @@
       <c r="C73" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -14445,69 +14400,51 @@
       <c r="C256" t="s">
         <v>27</v>
       </c>
-      <c r="D256" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E256" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F256" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G256" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H256" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I256" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J256" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K256" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L256" s="20"/>
-      <c r="M256" s="20"/>
-      <c r="N256" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O256" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P256" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q256" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="R256" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="S256" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="T256" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="U256" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="V256" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="W256" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="X256" s="20"/>
-      <c r="Y256" s="20"/>
-      <c r="Z256" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA256" s="21" t="s">
-        <v>49</v>
+      <c r="D256" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G256" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H256" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I256" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J256" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K256" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L256" s="5"/>
+      <c r="M256" s="5"/>
+      <c r="N256" s="5"/>
+      <c r="O256" s="5"/>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="5"/>
+      <c r="R256" s="5"/>
+      <c r="S256" s="5"/>
+      <c r="T256" s="5"/>
+      <c r="U256" s="5"/>
+      <c r="V256" s="5"/>
+      <c r="W256" s="5"/>
+      <c r="X256" s="5"/>
+      <c r="Y256" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z256" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA256" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="257" spans="1:27" x14ac:dyDescent="0.25">
@@ -14520,10 +14457,56 @@
       <c r="C257" t="s">
         <v>27</v>
       </c>
-      <c r="L257" s="22"/>
-      <c r="M257" s="22"/>
-      <c r="X257" s="22"/>
-      <c r="Y257" s="22"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5"/>
+      <c r="K257" s="5"/>
+      <c r="L257" s="5"/>
+      <c r="M257" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N257" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O257" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S257" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T257" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U257" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V257" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W257" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X257" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y257" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z257" s="5"/>
+      <c r="AA257" s="5"/>
     </row>
     <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
@@ -14535,69 +14518,51 @@
       <c r="C258" t="s">
         <v>27</v>
       </c>
-      <c r="D258" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E258" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F258" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G258" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H258" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I258" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J258" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K258" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L258" s="20"/>
-      <c r="M258" s="20"/>
-      <c r="N258" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O258" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P258" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q258" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="R258" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="S258" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="T258" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="U258" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="V258" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="W258" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="X258" s="20"/>
-      <c r="Y258" s="20"/>
-      <c r="Z258" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA258" s="21" t="s">
-        <v>49</v>
+      <c r="D258" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G258" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H258" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I258" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J258" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K258" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L258" s="5"/>
+      <c r="M258" s="5"/>
+      <c r="N258" s="5"/>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+      <c r="R258" s="5"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="5"/>
+      <c r="U258" s="5"/>
+      <c r="V258" s="5"/>
+      <c r="W258" s="5"/>
+      <c r="X258" s="5"/>
+      <c r="Y258" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z258" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA258" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.25">
@@ -14610,20 +14575,56 @@
       <c r="C259" t="s">
         <v>27</v>
       </c>
-      <c r="L259" s="22"/>
-      <c r="M259" s="22"/>
-      <c r="N259" s="22"/>
-      <c r="O259" s="22"/>
-      <c r="P259" s="22"/>
-      <c r="Q259" s="22"/>
-      <c r="R259" s="22"/>
-      <c r="S259" s="22"/>
-      <c r="T259" s="22"/>
-      <c r="U259" s="22"/>
-      <c r="V259" s="22"/>
-      <c r="W259" s="22"/>
-      <c r="X259" s="22"/>
-      <c r="Y259" s="22"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N259" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O259" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P259" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q259" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R259" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S259" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T259" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U259" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V259" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W259" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X259" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y259" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z259" s="5"/>
+      <c r="AA259" s="5"/>
     </row>
     <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
@@ -14635,69 +14636,45 @@
       <c r="C260" t="s">
         <v>27</v>
       </c>
-      <c r="D260" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E260" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F260" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G260" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H260" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I260" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J260" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K260" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L260" s="23"/>
-      <c r="M260" s="23"/>
-      <c r="N260" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O260" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P260" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q260" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="R260" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="S260" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="T260" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="U260" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="V260" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="W260" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="X260" s="20"/>
-      <c r="Y260" s="20"/>
-      <c r="Z260" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA260" s="21" t="s">
-        <v>49</v>
+      <c r="D260" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F260" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G260" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H260" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I260" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J260" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K260" s="5"/>
+      <c r="L260" s="7"/>
+      <c r="O260" s="5"/>
+      <c r="P260" s="5"/>
+      <c r="Q260" s="5"/>
+      <c r="R260" s="5"/>
+      <c r="W260" s="5"/>
+      <c r="X260" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y260" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z260" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA260" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="261" spans="1:27" x14ac:dyDescent="0.25">
@@ -14710,10 +14687,56 @@
       <c r="C261" t="s">
         <v>27</v>
       </c>
-      <c r="V261" s="22"/>
-      <c r="W261" s="22"/>
-      <c r="X261" s="22"/>
-      <c r="Y261" s="22"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
+      <c r="J261" s="5"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M261" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N261" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O261" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P261" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q261" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R261" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S261" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T261" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U261" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V261" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W261" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X261" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y261" s="5"/>
+      <c r="Z261" s="5"/>
+      <c r="AA261" s="5"/>
     </row>
     <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
@@ -14725,70 +14748,30 @@
       <c r="C262" t="s">
         <v>27</v>
       </c>
-      <c r="D262" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F262" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G262" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H262" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I262" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J262" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K262" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L262" s="23"/>
-      <c r="M262" s="23"/>
-      <c r="N262" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O262" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P262" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q262" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="R262" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="S262" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="T262" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="U262" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="V262" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="W262" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="X262" s="20"/>
-      <c r="Y262" s="20"/>
-      <c r="Z262" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA262" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+      <c r="I262" s="5"/>
+      <c r="J262" s="5"/>
+      <c r="K262" s="5"/>
+      <c r="L262" s="5"/>
+      <c r="M262" s="5"/>
+      <c r="N262" s="5"/>
+      <c r="O262" s="5"/>
+      <c r="P262" s="5"/>
+      <c r="Q262" s="5"/>
+      <c r="R262" s="5"/>
+      <c r="S262" s="5"/>
+      <c r="T262" s="5"/>
+      <c r="U262" s="5"/>
+      <c r="V262" s="5"/>
+      <c r="W262" s="5"/>
+      <c r="X262" s="5"/>
+      <c r="Y262" s="5"/>
+      <c r="Z262" s="5"/>
+      <c r="AA262" s="5"/>
     </row>
     <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
@@ -14800,20 +14783,30 @@
       <c r="C263" t="s">
         <v>27</v>
       </c>
-      <c r="D263" s="22"/>
-      <c r="E263" s="22"/>
-      <c r="F263" s="22"/>
-      <c r="G263" s="22"/>
-      <c r="H263" s="22"/>
-      <c r="I263" s="22"/>
-      <c r="J263" s="22"/>
-      <c r="K263" s="22"/>
-      <c r="V263" s="22"/>
-      <c r="W263" s="22"/>
-      <c r="X263" s="22"/>
-      <c r="Y263" s="22"/>
-      <c r="Z263" s="22"/>
-      <c r="AA263" s="22"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="5"/>
+      <c r="M263" s="5"/>
+      <c r="N263" s="5"/>
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
+      <c r="R263" s="5"/>
+      <c r="S263" s="5"/>
+      <c r="T263" s="5"/>
+      <c r="U263" s="5"/>
+      <c r="V263" s="5"/>
+      <c r="W263" s="5"/>
+      <c r="X263" s="5"/>
+      <c r="Y263" s="5"/>
+      <c r="Z263" s="5"/>
+      <c r="AA263" s="5"/>
     </row>
     <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
@@ -14825,49 +14818,51 @@
       <c r="C264" t="s">
         <v>27</v>
       </c>
-      <c r="D264" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E264" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F264" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G264" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H264" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I264" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J264" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K264" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L264" s="20"/>
-      <c r="M264" s="20"/>
-      <c r="N264" s="20"/>
-      <c r="O264" s="20"/>
-      <c r="P264" s="20"/>
-      <c r="Q264" s="20"/>
-      <c r="R264" s="20"/>
-      <c r="S264" s="20"/>
-      <c r="T264" s="20"/>
-      <c r="U264" s="20"/>
-      <c r="V264" s="20"/>
-      <c r="W264" s="20"/>
-      <c r="X264" s="20"/>
-      <c r="Y264" s="20"/>
-      <c r="Z264" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA264" s="21" t="s">
-        <v>49</v>
+      <c r="D264" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E264" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F264" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G264" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H264" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I264" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J264" s="5"/>
+      <c r="K264" s="5"/>
+      <c r="L264" s="5"/>
+      <c r="M264" s="5"/>
+      <c r="N264" s="5"/>
+      <c r="O264" s="5"/>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="5"/>
+      <c r="R264" s="5"/>
+      <c r="S264" s="5"/>
+      <c r="T264" s="5"/>
+      <c r="U264" s="5"/>
+      <c r="V264" s="5"/>
+      <c r="W264" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X264" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y264" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z264" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA264" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="265" spans="1:27" x14ac:dyDescent="0.25">
@@ -14880,10 +14875,56 @@
       <c r="C265" t="s">
         <v>27</v>
       </c>
-      <c r="V265" s="22"/>
-      <c r="W265" s="22"/>
-      <c r="X265" s="22"/>
-      <c r="Y265" s="22"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="5"/>
+      <c r="J265" s="5"/>
+      <c r="K265" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L265" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M265" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N265" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O265" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P265" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q265" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R265" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S265" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T265" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U265" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V265" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W265" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X265" s="5"/>
+      <c r="Y265" s="5"/>
+      <c r="Z265" s="5"/>
+      <c r="AA265" s="5"/>
     </row>
     <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
@@ -14895,69 +14936,45 @@
       <c r="C266" t="s">
         <v>27</v>
       </c>
-      <c r="D266" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E266" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F266" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G266" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H266" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I266" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J266" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K266" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L266" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="M266" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="N266" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="O266" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P266" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q266" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="R266" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="S266" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="T266" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="U266" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="V266" s="20"/>
-      <c r="W266" s="20"/>
-      <c r="X266" s="20"/>
-      <c r="Y266" s="20"/>
-      <c r="Z266" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA266" s="21" t="s">
-        <v>49</v>
+      <c r="D266" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F266" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G266" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H266" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I266" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J266" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K266" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L266" s="5"/>
+      <c r="M266" s="7"/>
+      <c r="P266" s="5"/>
+      <c r="Q266" s="5"/>
+      <c r="R266" s="5"/>
+      <c r="S266" s="5"/>
+      <c r="X266" s="5"/>
+      <c r="Y266" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z266" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA266" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="267" spans="1:27" x14ac:dyDescent="0.25">
@@ -14970,20 +14987,56 @@
       <c r="C267" t="s">
         <v>27</v>
       </c>
-      <c r="L267" s="22"/>
-      <c r="M267" s="22"/>
-      <c r="N267" s="22"/>
-      <c r="O267" s="22"/>
-      <c r="P267" s="22"/>
-      <c r="Q267" s="22"/>
-      <c r="R267" s="22"/>
-      <c r="S267" s="22"/>
-      <c r="T267" s="22"/>
-      <c r="U267" s="22"/>
-      <c r="V267" s="22"/>
-      <c r="W267" s="22"/>
-      <c r="X267" s="22"/>
-      <c r="Y267" s="22"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
+      <c r="J267" s="5"/>
+      <c r="K267" s="5"/>
+      <c r="L267" s="5"/>
+      <c r="M267" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N267" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O267" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P267" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q267" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R267" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S267" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T267" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U267" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V267" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W267" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X267" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y267" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z267" s="5"/>
+      <c r="AA267" s="5"/>
     </row>
     <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
@@ -14995,70 +15048,56 @@
       <c r="C268" t="s">
         <v>27</v>
       </c>
-      <c r="D268" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E268" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F268" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G268" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H268" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I268" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J268" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K268" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L268" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M268" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N268" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O268" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P268" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q268" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="R268" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="S268" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="T268" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="U268" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="V268" s="23"/>
-      <c r="W268" s="23"/>
-      <c r="X268" s="23"/>
-      <c r="Y268" s="23"/>
-      <c r="Z268" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA268" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K268" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L268" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M268" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N268" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O268" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P268" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q268" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R268" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S268" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T268" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U268" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V268" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W268" s="5"/>
+      <c r="X268" s="5"/>
+      <c r="Y268" s="5"/>
+      <c r="Z268" s="5"/>
+      <c r="AA268" s="5"/>
     </row>
     <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
@@ -15070,6 +15109,56 @@
       <c r="C269" t="s">
         <v>27</v>
       </c>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+      <c r="I269" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J269" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K269" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M269" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N269" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O269" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P269" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q269" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R269" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S269" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T269" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U269" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V269" s="5"/>
+      <c r="W269" s="5"/>
+      <c r="X269" s="5"/>
+      <c r="Y269" s="5"/>
+      <c r="Z269" s="5"/>
+      <c r="AA269" s="5"/>
     </row>
     <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
@@ -15081,69 +15170,51 @@
       <c r="C270" t="s">
         <v>27</v>
       </c>
-      <c r="D270" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E270" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F270" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G270" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H270" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I270" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J270" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K270" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L270" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M270" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N270" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O270" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P270" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q270" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="R270" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="S270" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="T270" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="U270" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="V270" s="23"/>
-      <c r="W270" s="23"/>
-      <c r="X270" s="23"/>
-      <c r="Y270" s="23"/>
-      <c r="Z270" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA270" s="21" t="s">
-        <v>49</v>
+      <c r="D270" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F270" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G270" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H270" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I270" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K270" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L270" s="5"/>
+      <c r="M270" s="5"/>
+      <c r="N270" s="5"/>
+      <c r="O270" s="5"/>
+      <c r="P270" s="5"/>
+      <c r="Q270" s="5"/>
+      <c r="R270" s="5"/>
+      <c r="S270" s="5"/>
+      <c r="T270" s="5"/>
+      <c r="U270" s="5"/>
+      <c r="V270" s="5"/>
+      <c r="W270" s="5"/>
+      <c r="X270" s="5"/>
+      <c r="Y270" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z270" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA270" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="271" spans="1:27" x14ac:dyDescent="0.25">
@@ -15156,6 +15227,56 @@
       <c r="C271" t="s">
         <v>27</v>
       </c>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5"/>
+      <c r="K271" s="5"/>
+      <c r="L271" s="5"/>
+      <c r="M271" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N271" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O271" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P271" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q271" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R271" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S271" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T271" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U271" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V271" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W271" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X271" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y271" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z271" s="5"/>
+      <c r="AA271" s="5"/>
     </row>
     <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
@@ -15285,49 +15406,55 @@
       <c r="C274" t="s">
         <v>27</v>
       </c>
-      <c r="D274" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E274" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F274" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G274" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H274" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I274" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J274" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K274" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L274" s="23"/>
-      <c r="M274" s="23"/>
-      <c r="N274" s="23"/>
-      <c r="O274" s="23"/>
-      <c r="P274" s="23"/>
-      <c r="Q274" s="23"/>
-      <c r="R274" s="23"/>
-      <c r="S274" s="23"/>
-      <c r="T274" s="23"/>
-      <c r="U274" s="23"/>
-      <c r="V274" s="23"/>
-      <c r="W274" s="23"/>
-      <c r="X274" s="23"/>
-      <c r="Y274" s="23"/>
-      <c r="Z274" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA274" s="21" t="s">
-        <v>49</v>
+      <c r="D274" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="5"/>
+      <c r="K274" s="5"/>
+      <c r="L274" s="5"/>
+      <c r="M274" s="5"/>
+      <c r="N274" s="5"/>
+      <c r="O274" s="5"/>
+      <c r="P274" s="5"/>
+      <c r="Q274" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R274" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S274" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T274" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U274" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V274" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W274" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X274" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y274" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z274" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA274" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.25">
@@ -15340,6 +15467,52 @@
       <c r="C275" t="s">
         <v>27</v>
       </c>
+      <c r="D275" s="5"/>
+      <c r="E275" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F275" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J275" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K275" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L275" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M275" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N275" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O275" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P275" s="5"/>
+      <c r="Q275" s="5"/>
+      <c r="R275" s="5"/>
+      <c r="S275" s="5"/>
+      <c r="T275" s="5"/>
+      <c r="U275" s="5"/>
+      <c r="V275" s="5"/>
+      <c r="W275" s="5"/>
+      <c r="X275" s="5"/>
+      <c r="Y275" s="5"/>
+      <c r="Z275" s="5"/>
+      <c r="AA275" s="5"/>
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
@@ -15351,69 +15524,51 @@
       <c r="C276" t="s">
         <v>27</v>
       </c>
-      <c r="D276" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E276" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F276" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G276" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H276" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I276" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J276" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K276" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L276" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M276" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N276" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O276" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P276" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q276" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="R276" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="S276" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="T276" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="U276" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="V276" s="23"/>
-      <c r="W276" s="23"/>
-      <c r="X276" s="23"/>
-      <c r="Y276" s="23"/>
-      <c r="Z276" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA276" s="21" t="s">
-        <v>49</v>
+      <c r="D276" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H276" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I276" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J276" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K276" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L276" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M276" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N276" s="5"/>
+      <c r="O276" s="5"/>
+      <c r="P276" s="5"/>
+      <c r="Q276" s="5"/>
+      <c r="R276" s="5"/>
+      <c r="S276" s="5"/>
+      <c r="T276" s="5"/>
+      <c r="U276" s="5"/>
+      <c r="V276" s="5"/>
+      <c r="W276" s="5"/>
+      <c r="X276" s="5"/>
+      <c r="Y276" s="5"/>
+      <c r="Z276" s="5"/>
+      <c r="AA276" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.25">
@@ -15426,6 +15581,56 @@
       <c r="C277" t="s">
         <v>27</v>
       </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5"/>
+      <c r="K277" s="5"/>
+      <c r="L277" s="5"/>
+      <c r="M277" s="5"/>
+      <c r="N277" s="5"/>
+      <c r="O277" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P277" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q277" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R277" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S277" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T277" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U277" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V277" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="W277" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X277" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y277" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z277" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA277" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
@@ -15437,49 +15642,51 @@
       <c r="C278" t="s">
         <v>27</v>
       </c>
-      <c r="D278" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E278" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F278" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G278" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H278" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I278" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J278" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K278" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L278" s="23"/>
-      <c r="M278" s="23"/>
-      <c r="N278" s="23"/>
-      <c r="O278" s="23"/>
-      <c r="P278" s="23"/>
-      <c r="Q278" s="23"/>
-      <c r="R278" s="23"/>
-      <c r="S278" s="23"/>
-      <c r="T278" s="23"/>
-      <c r="U278" s="23"/>
-      <c r="V278" s="23"/>
-      <c r="W278" s="23"/>
-      <c r="X278" s="23"/>
-      <c r="Y278" s="23"/>
-      <c r="Z278" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA278" s="21" t="s">
-        <v>49</v>
+      <c r="D278" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F278" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G278" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H278" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I278" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J278" s="5"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="5"/>
+      <c r="M278" s="5"/>
+      <c r="N278" s="5"/>
+      <c r="O278" s="5"/>
+      <c r="P278" s="5"/>
+      <c r="Q278" s="5"/>
+      <c r="R278" s="5"/>
+      <c r="S278" s="5"/>
+      <c r="T278" s="5"/>
+      <c r="U278" s="5"/>
+      <c r="V278" s="5"/>
+      <c r="W278" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="X278" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y278" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z278" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA278" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.25">
@@ -15492,6 +15699,56 @@
       <c r="C279" t="s">
         <v>27</v>
       </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="5"/>
+      <c r="K279" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L279" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M279" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N279" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O279" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P279" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q279" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R279" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S279" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T279" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U279" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V279" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W279" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X279" s="5"/>
+      <c r="Y279" s="5"/>
+      <c r="Z279" s="5"/>
+      <c r="AA279" s="5"/>
     </row>
     <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
@@ -15503,49 +15760,45 @@
       <c r="C280" t="s">
         <v>27</v>
       </c>
-      <c r="D280" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E280" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F280" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G280" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H280" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I280" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J280" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K280" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L280" s="23"/>
-      <c r="M280" s="23"/>
-      <c r="N280" s="23"/>
-      <c r="O280" s="23"/>
-      <c r="P280" s="23"/>
-      <c r="Q280" s="23"/>
-      <c r="R280" s="23"/>
-      <c r="S280" s="23"/>
-      <c r="T280" s="23"/>
-      <c r="U280" s="23"/>
-      <c r="V280" s="23"/>
-      <c r="W280" s="23"/>
-      <c r="X280" s="23"/>
-      <c r="Y280" s="23"/>
-      <c r="Z280" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA280" s="21" t="s">
-        <v>49</v>
+      <c r="D280" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F280" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G280" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H280" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I280" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J280" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K280" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L280" s="5"/>
+      <c r="M280" s="7"/>
+      <c r="P280" s="5"/>
+      <c r="Q280" s="5"/>
+      <c r="R280" s="5"/>
+      <c r="S280" s="5"/>
+      <c r="X280" s="5"/>
+      <c r="Y280" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z280" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA280" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.25">
